--- a/5/studenti.xlsx
+++ b/5/studenti.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -21,7 +21,7 @@
     <t>Bára</t>
   </si>
   <si>
-    <t xml:space="preserve">E1A </t>
+    <t>E1A</t>
   </si>
   <si>
     <t xml:space="preserve">První ročník</t>
@@ -136,11 +136,11 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -3073,11 +3073,24 @@
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter alignWithMargins="0"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A47F258D213EAF468A69C2ADE8CF37F0" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="563e108bfb05fee6316aa15c5b392251">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="35d35fb8-66bf-4dca-9b12-11a72216f760" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="06892fc6a03e283c22d46820ffc98ab7" ns2:_="">
     <xsd:import namespace="35d35fb8-66bf-4dca-9b12-11a72216f760"/>
@@ -3209,21 +3222,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D4C3B47-9B05-4D39-88AA-76959A138BD4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{252C04B3-E36C-4E8E-B68F-0CBFA26409E9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3231,5 +3231,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{252C04B3-E36C-4E8E-B68F-0CBFA26409E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D4C3B47-9B05-4D39-88AA-76959A138BD4}"/>
 </file>